--- a/sorensenLab/relatedToYbx1/design20210912_ostir1Redesign/oligosDesignWorkbookOstir1Redesign.xlsx
+++ b/sorensenLab/relatedToYbx1/design20210912_ostir1Redesign/oligosDesignWorkbookOstir1Redesign.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chughes\Documents\bccrc\projectsWorkspace\sorensenLab\relatedToYbx1\design20210909_inducibleYbx1Construct\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chughes\Documents\bccrc\projectsWorkspace\sorensenLab\relatedToYbx1\design20210912_ostir1Redesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="153">
   <si>
     <t>name</t>
   </si>
@@ -471,6 +471,18 @@
   </si>
   <si>
     <t>ccttggtgtcattcctgcaagacAGCCACGATTACCAGCTATCCT</t>
+  </si>
+  <si>
+    <t>yb1HARgrnaRev4</t>
+  </si>
+  <si>
+    <t>yb1HARgrnaRev1</t>
+  </si>
+  <si>
+    <t>ccttggtgtcattcctgcaagaGGCAGCTCACCTGTTGATGAAA</t>
+  </si>
+  <si>
+    <t>ccttggtgtcattcctgcaagaCAAGCAAGAAGGTGGGATGGAG</t>
   </si>
 </sst>
 </file>
@@ -815,10 +827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+      <selection activeCell="A67" sqref="A67:B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1634,7 +1646,7 @@
         <v>111</v>
       </c>
       <c r="C50" s="3">
-        <f t="shared" ref="C50:C69" si="5">LEN(B50)</f>
+        <f t="shared" ref="C50:C71" si="5">LEN(B50)</f>
         <v>43</v>
       </c>
       <c r="D50" s="3">
@@ -1892,37 +1904,70 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B68" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C68" s="3">
         <f t="shared" si="5"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D68" s="3">
         <v>69</v>
       </c>
       <c r="E68" s="3">
-        <v>850</v>
+        <v>950</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>144</v>
+      </c>
+      <c r="B69" t="s">
+        <v>147</v>
+      </c>
+      <c r="C69" s="3">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="D69" s="3">
+        <v>69</v>
+      </c>
+      <c r="E69" s="3">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>149</v>
+      </c>
+      <c r="B70" t="s">
+        <v>151</v>
+      </c>
+      <c r="C70" s="3">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="E70" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>145</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B71" t="s">
         <v>148</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C71" s="3">
         <f t="shared" si="5"/>
         <v>45</v>
       </c>
-      <c r="D69" s="3">
-        <v>69</v>
-      </c>
-      <c r="E69" s="3">
+      <c r="D71" s="3">
+        <v>69</v>
+      </c>
+      <c r="E71" s="3">
         <v>800</v>
       </c>
     </row>
